--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\Nevada\NV_model\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A378B0-0E81-4BF7-A51D-0452D6AD949C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
+    <workbookView xWindow="360" yWindow="345" windowWidth="23175" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BGDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -103,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,6 +255,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -278,6 +307,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,10 +499,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -512,13 +558,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -644,147 +692,147 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="C2">
         <f>$B2</f>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:AK9" si="0">$B2</f>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="W2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="X2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="Y2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="Z2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AA2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AB2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AC2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AD2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AE2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AF2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AG2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AH2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AI2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AJ2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AK2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\Nevada\NV_model\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A378B0-0E81-4BF7-A51D-0452D6AD949C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="23175" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BGDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -115,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,23 +243,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -307,23 +278,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,10 +453,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -558,15 +512,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -692,147 +644,147 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f>$B2</f>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:AK9" si="0">$B2</f>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NV\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{032E1871-0A62-48FE-B986-D1907A0255D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4037B44-B77C-48AF-8BCD-F44A4C140C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="2" activeTab="3" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
+    <workbookView xWindow="1440" yWindow="720" windowWidth="13580" windowHeight="10080" firstSheet="2" activeTab="3" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1310,7 +1310,7 @@
         <v>124</v>
       </c>
       <c r="C1" s="4">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>43</v>
@@ -54722,8 +54722,8 @@
   </sheetPr>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -55324,97 +55324,97 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.75">
@@ -55422,97 +55422,97 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.75">
@@ -56108,97 +56108,97 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.75">
@@ -56794,97 +56794,97 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.75">
@@ -56892,97 +56892,97 @@
         <v>39</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.75">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NV\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23704AD0-25A8-4A94-9C18-4E28110873D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C489F63-6BAF-4FAD-A4BD-EBACFF2CECAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="17895" windowHeight="16500" firstSheet="7" activeTab="8" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="3" activeTab="9" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1549,7 +1549,7 @@
         <v>124</v>
       </c>
       <c r="C1" s="4">
-        <v>45730</v>
+        <v>45744</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>43</v>
@@ -2384,8 +2384,8 @@
   </sheetPr>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6375,8 +6375,8 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8061,7 +8061,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="I48">
         <f>INDEX('petroleum adj'!B:B,MATCH(B48,'petroleum adj'!$A:$A,0))</f>
@@ -88906,8 +88906,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -89955,22 +89955,22 @@
         <v>143</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NV\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C489F63-6BAF-4FAD-A4BD-EBACFF2CECAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11DA841B-BE14-4C65-8CCB-29737DE85F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="3" activeTab="9" xr2:uid="{FA10E943-52D5-4BD5-9FD1-00D6D0D692D0}"/>
   </bookViews>
@@ -1549,7 +1549,7 @@
         <v>124</v>
       </c>
       <c r="C1" s="4">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>43</v>
@@ -2385,7 +2385,7 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2976,6 +2976,7 @@
         <v>0.9</v>
       </c>
       <c r="F6">
+        <f>E6</f>
         <v>0.9</v>
       </c>
       <c r="G6">
@@ -6375,8 +6376,8 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6836,7 +6837,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <f>INDEX('petroleum adj'!B:B,MATCH(B13,'petroleum adj'!$A:$A,0))</f>
